--- a/Mails.xlsx
+++ b/Mails.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Projects\Email_Automated_tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Projects\Email_Automated_tool\Email_Automation_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196F972E-B9F2-4CEE-9D44-1249E3B99A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4561AF65-A19C-432D-96FD-4BD9AE5DF12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D3646F93-8E94-4CF1-8DDB-5A787291B4EC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>temporaryb556@gmail.com</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>shannhagjahga.com</t>
+  </si>
+  <si>
+    <t>196301028@gkv.ac.in</t>
+  </si>
+  <si>
+    <t>shannub556.marolix@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -433,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1EDD73-5537-4476-B9B4-F7F8BA06F828}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,12 +472,24 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{ACDFA05F-EA4A-4CE4-8E56-3ECF0F44095C}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{649CAD9F-7E87-4F70-93B0-7845C70A3471}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{5D184D81-03EF-4595-B192-2BF721D62BFE}"/>
     <hyperlink ref="A5" r:id="rId4" display="shannu@gmail.com" xr:uid="{51522E18-E501-4AE6-BB52-0851178A0ECA}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{17662D6E-B8CE-4465-AF0F-8BC2DACC5CED}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{A65DDA16-DA38-42FA-AD62-D6EE3391DD82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mails.xlsx
+++ b/Mails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Projects\Email_Automated_tool\Email_Automation_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4561AF65-A19C-432D-96FD-4BD9AE5DF12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B22A9A-C818-4DE6-B530-4E22D324933C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D3646F93-8E94-4CF1-8DDB-5A787291B4EC}"/>
   </bookViews>
@@ -36,27 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>temporaryb556@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>email</t>
-  </si>
-  <si>
-    <t>shannub556@one.com</t>
-  </si>
-  <si>
-    <t>shanmukha@googletest.com</t>
-  </si>
-  <si>
-    <t>shannhagjahga.com</t>
-  </si>
-  <si>
-    <t>196301028@gkv.ac.in</t>
-  </si>
-  <si>
-    <t>shannub556.marolix@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -442,55 +424,35 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{ACDFA05F-EA4A-4CE4-8E56-3ECF0F44095C}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{649CAD9F-7E87-4F70-93B0-7845C70A3471}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{5D184D81-03EF-4595-B192-2BF721D62BFE}"/>
-    <hyperlink ref="A5" r:id="rId4" display="shannu@gmail.com" xr:uid="{51522E18-E501-4AE6-BB52-0851178A0ECA}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{17662D6E-B8CE-4465-AF0F-8BC2DACC5CED}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{A65DDA16-DA38-42FA-AD62-D6EE3391DD82}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Mails.xlsx
+++ b/Mails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Projects\Email_Automated_tool\Email_Automation_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B22A9A-C818-4DE6-B530-4E22D324933C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4891845-E086-4F85-9479-6579E6D3906F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D3646F93-8E94-4CF1-8DDB-5A787291B4EC}"/>
   </bookViews>
@@ -36,9 +36,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>jem@oiaproperties.com</t>
+  </si>
+  <si>
+    <t>hr@smarttargetkwt.com</t>
+  </si>
+  <si>
+    <t>Asmaa.Mamdouh@consultant.com</t>
+  </si>
+  <si>
+    <t>deepanshi@vrezolv.in</t>
+  </si>
+  <si>
+    <t>sandhiya.s@cruxcs.com</t>
+  </si>
+  <si>
+    <t>hr@unrealpays.com</t>
+  </si>
+  <si>
+    <t>sonniya.gautam@glazer.games</t>
+  </si>
+  <si>
+    <t>venkatn@esharpedge.com</t>
+  </si>
+  <si>
+    <t>shivani@taritan.com</t>
+  </si>
+  <si>
+    <t>rabdelhady@ntg.com</t>
+  </si>
+  <si>
+    <t>support@alasoft.co</t>
+  </si>
+  <si>
+    <t>hopebridgepro@outlook.com</t>
+  </si>
+  <si>
+    <t>shoaib.cto@rehbarpost.com</t>
   </si>
 </sst>
 </file>
@@ -421,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1EDD73-5537-4476-B9B4-F7F8BA06F828}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,24 +474,75 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{0C6E9D63-EE00-4D92-A92D-35B0AFF1257D}"/>
+    <hyperlink ref="A14" r:id="rId2" xr:uid="{4A59D018-4940-4463-AD68-4580C75B4DD6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>